--- a/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu1_sigma1/R50/Intermodal_EGS_data_dynamic_lognormal_mu1_sigma1_table92.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu1_sigma1/R50/Intermodal_EGS_data_dynamic_lognormal_mu1_sigma1_table92.xlsx
@@ -7634,7 +7634,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[14, 18]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[14, 18]</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -7688,15 +7688,15 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[20, 34]</t>
+          <t>[71, 73]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7717,15 +7717,15 @@
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[20, 34]</t>
+          <t>[71, 73]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[121, 128]</t>
+          <t>[121, 126]</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[121, 128]</t>
+          <t>[121, 126]</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[149, 150]</t>
+          <t>[149, 153]</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[149, 150]</t>
+          <t>[149, 153]</t>
         </is>
       </c>
       <c r="G9" t="n">
